--- a/GunfireDungeon_Godot/excel/DamageConfig.xlsx
+++ b/GunfireDungeon_Godot/excel/DamageConfig.xlsx
@@ -272,13 +272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC600FF"/>
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC52F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5EFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,9 +853,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0031129F"/>
-      <color rgb="00C600FF"/>
-      <color rgb="00005AFF"/>
       <color rgb="000076E3"/>
       <color rgb="005029DB"/>
       <color rgb="0012E5F2"/>
@@ -863,6 +860,9 @@
       <color rgb="005534CB"/>
       <color rgb="000076CE"/>
       <color rgb="000083E5"/>
+      <color rgb="00A036FF"/>
+      <color rgb="00B96CFF"/>
+      <color rgb="00BC52F7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1167,7 +1167,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
